--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Angptl3-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H2">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I2">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J2">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.13036839234934</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N2">
-        <v>5.13036839234934</v>
+        <v>19.830535</v>
       </c>
       <c r="O2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P2">
-        <v>0.6160120116588518</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q2">
-        <v>6.967066879295983</v>
+        <v>9.015395279377223</v>
       </c>
       <c r="R2">
-        <v>6.967066879295983</v>
+        <v>81.138557514395</v>
       </c>
       <c r="S2">
-        <v>0.2361326340848657</v>
+        <v>0.2313449823354352</v>
       </c>
       <c r="T2">
-        <v>0.2361326340848657</v>
+        <v>0.2313449823354352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H3">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I3">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J3">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.75397691008961</v>
+        <v>2.754304</v>
       </c>
       <c r="N3">
-        <v>2.75397691008961</v>
+        <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P3">
-        <v>0.3306746663604526</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q3">
-        <v>3.739914924090837</v>
+        <v>3.756500661162666</v>
       </c>
       <c r="R3">
-        <v>3.739914924090837</v>
+        <v>33.808505950464</v>
       </c>
       <c r="S3">
-        <v>0.1267557750741885</v>
+        <v>0.0963959485046296</v>
       </c>
       <c r="T3">
-        <v>0.1267557750741885</v>
+        <v>0.09639594850462964</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H4">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I4">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J4">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.22314243815605</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N4">
-        <v>0.22314243815605</v>
+        <v>0.687851</v>
       </c>
       <c r="O4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P4">
-        <v>0.02679309002837966</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q4">
-        <v>0.3030285880758069</v>
+        <v>0.3127121208941111</v>
       </c>
       <c r="R4">
-        <v>0.3030285880758069</v>
+        <v>2.814409088047</v>
       </c>
       <c r="S4">
-        <v>0.010270453828712</v>
+        <v>0.008024537787024475</v>
       </c>
       <c r="T4">
-        <v>0.010270453828712</v>
+        <v>0.008024537787024477</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.35800518529734</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H5">
-        <v>1.35800518529734</v>
+        <v>4.091597</v>
       </c>
       <c r="I5">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J5">
-        <v>0.3833247235698973</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.220869978492051</v>
+        <v>0.214866</v>
       </c>
       <c r="N5">
-        <v>0.220869978492051</v>
+        <v>0.644598</v>
       </c>
       <c r="O5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P5">
-        <v>0.02652023195231612</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q5">
-        <v>0.2999425760687172</v>
+        <v>0.293048360334</v>
       </c>
       <c r="R5">
-        <v>0.2999425760687172</v>
+        <v>2.637435243006</v>
       </c>
       <c r="S5">
-        <v>0.01016586058213114</v>
+        <v>0.007519944011770576</v>
       </c>
       <c r="T5">
-        <v>0.01016586058213114</v>
+        <v>0.007519944011770578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,55 +779,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.21094930396331</v>
+        <v>1.363865666666667</v>
       </c>
       <c r="H6">
-        <v>1.21094930396331</v>
+        <v>4.091597</v>
       </c>
       <c r="I6">
-        <v>0.3418151949819396</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="J6">
-        <v>0.3418151949819396</v>
+        <v>0.35258381842799</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.13036839234934</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N6">
-        <v>5.13036839234934</v>
+        <v>0.797045</v>
       </c>
       <c r="O6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P6">
-        <v>0.6160120116588518</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q6">
-        <v>6.212616033790799</v>
+        <v>0.3623541034294444</v>
       </c>
       <c r="R6">
-        <v>6.212616033790799</v>
+        <v>3.261186930865</v>
       </c>
       <c r="S6">
-        <v>0.2105622658763873</v>
+        <v>0.009298405789130092</v>
       </c>
       <c r="T6">
-        <v>0.2105622658763873</v>
+        <v>0.009298405789130094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H7">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I7">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J7">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.75397691008961</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N7">
-        <v>2.75397691008961</v>
+        <v>19.830535</v>
       </c>
       <c r="O7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P7">
-        <v>0.3306746663604526</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q7">
-        <v>3.33492642240404</v>
+        <v>8.247748659348892</v>
       </c>
       <c r="R7">
-        <v>3.33492642240404</v>
+        <v>74.22973793414002</v>
       </c>
       <c r="S7">
-        <v>0.1130296255575859</v>
+        <v>0.2116463237356784</v>
       </c>
       <c r="T7">
-        <v>0.1130296255575859</v>
+        <v>0.2116463237356784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H8">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I8">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J8">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.22314243815605</v>
+        <v>2.754304</v>
       </c>
       <c r="N8">
-        <v>0.22314243815605</v>
+        <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P8">
-        <v>0.02679309002837966</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q8">
-        <v>0.2702141801697447</v>
+        <v>3.436640583338667</v>
       </c>
       <c r="R8">
-        <v>0.2702141801697447</v>
+        <v>30.929765250048</v>
       </c>
       <c r="S8">
-        <v>0.009158285292219254</v>
+        <v>0.08818798626216698</v>
       </c>
       <c r="T8">
-        <v>0.009158285292219254</v>
+        <v>0.08818798626216699</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,122 +965,122 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.21094930396331</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H9">
-        <v>1.21094930396331</v>
+        <v>3.743204</v>
       </c>
       <c r="I9">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J9">
-        <v>0.3418151949819396</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.220869978492051</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N9">
-        <v>0.220869978492051</v>
+        <v>0.687851</v>
       </c>
       <c r="O9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P9">
-        <v>0.02652023195231612</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q9">
-        <v>0.2674623467213404</v>
+        <v>0.2860851794004445</v>
       </c>
       <c r="R9">
-        <v>0.2674623467213404</v>
+        <v>2.574766614604</v>
       </c>
       <c r="S9">
-        <v>0.009065018255747201</v>
+        <v>0.007341261112113723</v>
       </c>
       <c r="T9">
-        <v>0.009065018255747201</v>
+        <v>0.007341261112113723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.530981373328521</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H10">
-        <v>0.530981373328521</v>
+        <v>3.743204</v>
       </c>
       <c r="I10">
-        <v>0.1498803468171989</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J10">
-        <v>0.1498803468171989</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>5.13036839234934</v>
+        <v>0.214866</v>
       </c>
       <c r="N10">
-        <v>5.13036839234934</v>
+        <v>0.644598</v>
       </c>
       <c r="O10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P10">
-        <v>0.6160120116588518</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q10">
-        <v>2.724130054650889</v>
+        <v>0.268095756888</v>
       </c>
       <c r="R10">
-        <v>2.724130054650889</v>
+        <v>2.412861811992</v>
       </c>
       <c r="S10">
-        <v>0.09232809395098905</v>
+        <v>0.006879632697119407</v>
       </c>
       <c r="T10">
-        <v>0.09232809395098905</v>
+        <v>0.006879632697119407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,55 +1089,55 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.530981373328521</v>
+        <v>1.247734666666667</v>
       </c>
       <c r="H11">
-        <v>0.530981373328521</v>
+        <v>3.743204</v>
       </c>
       <c r="I11">
-        <v>0.1498803468171989</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="J11">
-        <v>0.1498803468171989</v>
+        <v>0.3225618650798028</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.75397691008961</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N11">
-        <v>2.75397691008961</v>
+        <v>0.797045</v>
       </c>
       <c r="O11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P11">
-        <v>0.3306746663604526</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q11">
-        <v>1.462310441834418</v>
+        <v>0.3315002257977778</v>
       </c>
       <c r="R11">
-        <v>1.462310441834418</v>
+        <v>2.983502032180001</v>
       </c>
       <c r="S11">
-        <v>0.04956163367776615</v>
+        <v>0.008506661272724298</v>
       </c>
       <c r="T11">
-        <v>0.04956163367776615</v>
+        <v>0.0085066612727243</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H12">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I12">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J12">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.22314243815605</v>
+        <v>6.610178333333334</v>
       </c>
       <c r="N12">
-        <v>0.22314243815605</v>
+        <v>19.830535</v>
       </c>
       <c r="O12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098394</v>
       </c>
       <c r="P12">
-        <v>0.02679309002837966</v>
+        <v>0.6561418030098395</v>
       </c>
       <c r="Q12">
-        <v>0.118484478259974</v>
+        <v>5.346933592763333</v>
       </c>
       <c r="R12">
-        <v>0.118484478259974</v>
+        <v>48.12240233487</v>
       </c>
       <c r="S12">
-        <v>0.004015757625757976</v>
+        <v>0.1372082109806314</v>
       </c>
       <c r="T12">
-        <v>0.004015757625757976</v>
+        <v>0.1372082109806314</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.530981373328521</v>
+        <v>0.808894</v>
       </c>
       <c r="H13">
-        <v>0.530981373328521</v>
+        <v>2.426682</v>
       </c>
       <c r="I13">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J13">
-        <v>0.1498803468171989</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.220869978492051</v>
+        <v>2.754304</v>
       </c>
       <c r="N13">
-        <v>0.220869978492051</v>
+        <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057961</v>
       </c>
       <c r="P13">
-        <v>0.02652023195231612</v>
+        <v>0.2733986742057962</v>
       </c>
       <c r="Q13">
-        <v>0.1172778445067501</v>
+        <v>2.227939979776</v>
       </c>
       <c r="R13">
-        <v>0.1172778445067501</v>
+        <v>20.051459817984</v>
       </c>
       <c r="S13">
-        <v>0.0039748615626857</v>
+        <v>0.05717139618322908</v>
       </c>
       <c r="T13">
-        <v>0.0039748615626857</v>
+        <v>0.0571713961832291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
@@ -1275,60 +1275,60 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.442765929902215</v>
+        <v>0.808894</v>
       </c>
       <c r="H14">
-        <v>0.442765929902215</v>
+        <v>2.426682</v>
       </c>
       <c r="I14">
-        <v>0.1249797346309643</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J14">
-        <v>0.1249797346309643</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.13036839234934</v>
+        <v>0.2292836666666667</v>
       </c>
       <c r="N14">
-        <v>5.13036839234934</v>
+        <v>0.687851</v>
       </c>
       <c r="O14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041301</v>
       </c>
       <c r="P14">
-        <v>0.6160120116588518</v>
+        <v>0.02275923445041302</v>
       </c>
       <c r="Q14">
-        <v>2.271552331979488</v>
+        <v>0.1854661822646667</v>
       </c>
       <c r="R14">
-        <v>2.271552331979488</v>
+        <v>1.669195640382</v>
       </c>
       <c r="S14">
-        <v>0.07698901774660979</v>
+        <v>0.004759266713239874</v>
       </c>
       <c r="T14">
-        <v>0.07698901774660979</v>
+        <v>0.004759266713239875</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
@@ -1337,117 +1337,117 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.442765929902215</v>
+        <v>0.808894</v>
       </c>
       <c r="H15">
-        <v>0.442765929902215</v>
+        <v>2.426682</v>
       </c>
       <c r="I15">
-        <v>0.1249797346309643</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J15">
-        <v>0.1249797346309643</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>2.75397691008961</v>
+        <v>0.214866</v>
       </c>
       <c r="N15">
-        <v>2.75397691008961</v>
+        <v>0.644598</v>
       </c>
       <c r="O15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="P15">
-        <v>0.3306746663604526</v>
+        <v>0.02132810304596101</v>
       </c>
       <c r="Q15">
-        <v>1.219367147525055</v>
+        <v>0.173803818204</v>
       </c>
       <c r="R15">
-        <v>1.219367147525055</v>
+        <v>1.564234363836</v>
       </c>
       <c r="S15">
-        <v>0.04132763205091203</v>
+        <v>0.004459997593695432</v>
       </c>
       <c r="T15">
-        <v>0.04132763205091203</v>
+        <v>0.004459997593695432</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.442765929902215</v>
+        <v>0.808894</v>
       </c>
       <c r="H16">
-        <v>0.442765929902215</v>
+        <v>2.426682</v>
       </c>
       <c r="I16">
-        <v>0.1249797346309643</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="J16">
-        <v>0.1249797346309643</v>
+        <v>0.2091136555409713</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.22314243815605</v>
+        <v>0.2656816666666666</v>
       </c>
       <c r="N16">
-        <v>0.22314243815605</v>
+        <v>0.797045</v>
       </c>
       <c r="O16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799033</v>
       </c>
       <c r="P16">
-        <v>0.02679309002837966</v>
+        <v>0.02637218528799034</v>
       </c>
       <c r="Q16">
-        <v>0.09879986913081099</v>
+        <v>0.2149083060766667</v>
       </c>
       <c r="R16">
-        <v>0.09879986913081099</v>
+        <v>1.93417475469</v>
       </c>
       <c r="S16">
-        <v>0.003348593281690426</v>
+        <v>0.005514784070175482</v>
       </c>
       <c r="T16">
-        <v>0.003348593281690426</v>
+        <v>0.005514784070175483</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,55 +1461,303 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4477083333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.343125</v>
+      </c>
+      <c r="I17">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="J17">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.610178333333334</v>
+      </c>
+      <c r="N17">
+        <v>19.830535</v>
+      </c>
+      <c r="O17">
+        <v>0.6561418030098394</v>
+      </c>
+      <c r="P17">
+        <v>0.6561418030098395</v>
+      </c>
+      <c r="Q17">
+        <v>2.959431924652778</v>
+      </c>
+      <c r="R17">
+        <v>26.63488732187501</v>
+      </c>
+      <c r="S17">
+        <v>0.07594228595809445</v>
+      </c>
+      <c r="T17">
+        <v>0.07594228595809446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.442765929902215</v>
-      </c>
-      <c r="H17">
-        <v>0.442765929902215</v>
-      </c>
-      <c r="I17">
-        <v>0.1249797346309643</v>
-      </c>
-      <c r="J17">
-        <v>0.1249797346309643</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="N17">
-        <v>0.220869978492051</v>
-      </c>
-      <c r="O17">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="P17">
-        <v>0.02652023195231612</v>
-      </c>
-      <c r="Q17">
-        <v>0.0977937014145152</v>
-      </c>
-      <c r="R17">
-        <v>0.0977937014145152</v>
-      </c>
-      <c r="S17">
-        <v>0.00331449155175209</v>
-      </c>
-      <c r="T17">
-        <v>0.00331449155175209</v>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.4477083333333334</v>
+      </c>
+      <c r="H18">
+        <v>1.343125</v>
+      </c>
+      <c r="I18">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="J18">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.754304</v>
+      </c>
+      <c r="N18">
+        <v>8.262912</v>
+      </c>
+      <c r="O18">
+        <v>0.2733986742057961</v>
+      </c>
+      <c r="P18">
+        <v>0.2733986742057962</v>
+      </c>
+      <c r="Q18">
+        <v>1.233124853333333</v>
+      </c>
+      <c r="R18">
+        <v>11.09812368</v>
+      </c>
+      <c r="S18">
+        <v>0.03164334325577046</v>
+      </c>
+      <c r="T18">
+        <v>0.03164334325577047</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.4477083333333334</v>
+      </c>
+      <c r="H19">
+        <v>1.343125</v>
+      </c>
+      <c r="I19">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="J19">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2292836666666667</v>
+      </c>
+      <c r="N19">
+        <v>0.687851</v>
+      </c>
+      <c r="O19">
+        <v>0.02275923445041301</v>
+      </c>
+      <c r="P19">
+        <v>0.02275923445041302</v>
+      </c>
+      <c r="Q19">
+        <v>0.1026522082638889</v>
+      </c>
+      <c r="R19">
+        <v>0.9238698743750001</v>
+      </c>
+      <c r="S19">
+        <v>0.002634168838034941</v>
+      </c>
+      <c r="T19">
+        <v>0.002634168838034941</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.4477083333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.343125</v>
+      </c>
+      <c r="I20">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="J20">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.214866</v>
+      </c>
+      <c r="N20">
+        <v>0.644598</v>
+      </c>
+      <c r="O20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="P20">
+        <v>0.02132810304596101</v>
+      </c>
+      <c r="Q20">
+        <v>0.09619729875000001</v>
+      </c>
+      <c r="R20">
+        <v>0.8657756887500001</v>
+      </c>
+      <c r="S20">
+        <v>0.002468528743375596</v>
+      </c>
+      <c r="T20">
+        <v>0.002468528743375596</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.4477083333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.343125</v>
+      </c>
+      <c r="I21">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="J21">
+        <v>0.1157406609512359</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2656816666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.797045</v>
+      </c>
+      <c r="O21">
+        <v>0.02637218528799033</v>
+      </c>
+      <c r="P21">
+        <v>0.02637218528799034</v>
+      </c>
+      <c r="Q21">
+        <v>0.1189478961805556</v>
+      </c>
+      <c r="R21">
+        <v>1.070531065625</v>
+      </c>
+      <c r="S21">
+        <v>0.003052334155960461</v>
+      </c>
+      <c r="T21">
+        <v>0.003052334155960462</v>
       </c>
     </row>
   </sheetData>
